--- a/config_Release/activity_016_cwk_config.xlsx
+++ b/config_Release/activity_016_cwk_config.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="task_info" sheetId="1" r:id="rId1"/>
-    <sheet name="task_info_cjj" sheetId="3" r:id="rId2"/>
-    <sheet name="help_info" sheetId="2" r:id="rId3"/>
-    <sheet name="help_info_cjj" sheetId="4" r:id="rId4"/>
+    <sheet name="permissions" sheetId="5" r:id="rId1"/>
+    <sheet name="task_info" sheetId="1" r:id="rId2"/>
+    <sheet name="task_info_cjj" sheetId="3" r:id="rId3"/>
+    <sheet name="help_info" sheetId="2" r:id="rId4"/>
+    <sheet name="help_info_cjj" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>在财神消消乐中累计赢金1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,24 +120,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.畅享卡购买后立得500万金币，剩余20天每日登陆可领30万金币。</t>
-  </si>
-  <si>
-    <t>2.每日完成2个任务共领500福利券，每个任务每日限领1次，共领20次。</t>
-  </si>
-  <si>
     <t>3.任务刷新首次免费，之后每次需30000金币，次数不限。</t>
   </si>
   <si>
     <t>4.当日未完成的任务次日清零，刷新重置。</t>
   </si>
   <si>
-    <t>5.任务需在购买内30日内完成，时间截止后任务失效。</t>
-  </si>
-  <si>
-    <t>6.6.街机捕鱼累计赢金按50%计算。</t>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +185,70 @@
   </si>
   <si>
     <t>by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.畅享卡购买后立得500万金币，剩余20天每日登陆可领40万金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每日完成2个任务共领400福利券，每个任务每日限领1次，共领20次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.街机捕鱼累计赢金按50%计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.畅享卡购买后立得500万金币，剩余20天每日登陆可领40万金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每日完成2个任务共领400福利券，每个任务每日限领1次，共领20次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_info_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_info_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.任务需在购买30日内完成，时间截止后任务失效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +603,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -602,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -622,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -642,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -662,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -682,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -702,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -722,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -762,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -782,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -802,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -862,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -882,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -951,11 +1066,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -984,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1004,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1024,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1044,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1064,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1075,7 +1190,7 @@
         <v>1000117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -1084,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1104,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1124,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1144,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1184,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1204,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1215,7 +1330,7 @@
         <v>1000118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>80000000</v>
@@ -1224,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1244,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1264,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1284,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1304,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1344,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1354,12 +1469,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1382,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1398,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1406,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,21 +1537,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1457,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1473,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1481,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1489,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_016_cwk_config.xlsx
+++ b/config_Release/activity_016_cwk_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="permissions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>在财神消消乐中累计赢金1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在街机捕鱼中累计赢金1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在疯狂捕鱼中累计赢金1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.任务刷新首次免费，之后每次需30000金币，次数不限。</t>
   </si>
   <si>
@@ -196,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.街机捕鱼累计赢金按50%计算。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.畅享卡购买后立得500万金币，剩余20天每日登陆可领40万金币。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +237,18 @@
   </si>
   <si>
     <t>5.任务需在购买30日内完成，时间截止后任务失效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在疯狂捕鱼中累计消耗1000万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在街机捕鱼中累计消耗1000万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在疯狂捕鱼中累计消耗1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,16 +617,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,13 +634,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D22" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>21326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>21327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
         <v>10000000</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>1000117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>21327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2">
         <v>10000000</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>1000118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>80000000</v>
@@ -1339,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1379,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1529,15 +1529,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1551,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1573,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1581,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1589,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1597,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1605,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_016_cwk_config.xlsx
+++ b/config_Release/activity_016_cwk_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="permissions" sheetId="5" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在水果消消乐中累计赢金1000万</t>
-  </si>
-  <si>
     <t>在苹果大战中累计纯赢1000万</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>弹弹乐中累计赢金8000万</t>
   </si>
   <si>
-    <t>水果消消乐使用48万及以上档次，出现1次幸运时刻</t>
-  </si>
-  <si>
     <t>水浒消消乐中累计赢金8000万</t>
   </si>
   <si>
@@ -250,6 +244,12 @@
   <si>
     <t>在疯狂捕鱼中累计消耗1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在萌宠消消乐中累计赢金1000万</t>
+  </si>
+  <si>
+    <t>萌宠消消乐使用48万及以上档次，出现1次幸运时刻</t>
   </si>
 </sst>
 </file>
@@ -617,16 +617,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,13 +634,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I22:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,22 +682,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>21324</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>10000000</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -768,7 +768,7 @@
         <v>21325</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>10000000</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>21326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>21327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2">
         <v>10000000</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>21328</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>10000000</v>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -848,7 +848,7 @@
         <v>21329</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>10000000</v>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -868,7 +868,7 @@
         <v>21330</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>10000000</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -888,7 +888,7 @@
         <v>21331</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>80000000</v>
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>21332</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>21333</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -948,7 +948,7 @@
         <v>21334</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>80000000</v>
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -968,7 +968,7 @@
         <v>21335</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>80000000</v>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -988,7 +988,7 @@
         <v>21336</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>21337</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
         <v>80000000</v>
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>21338</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
         <v>21339</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1084,22 +1084,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>21324</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>10000000</v>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>21325</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>10000000</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>1000117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>21327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2">
         <v>10000000</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1230,7 +1230,7 @@
         <v>21328</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>10000000</v>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>21329</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>10000000</v>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>21330</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>10000000</v>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1290,7 +1290,7 @@
         <v>21331</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>80000000</v>
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>21332</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>1000118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
         <v>80000000</v>
@@ -1339,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1350,7 +1350,7 @@
         <v>21334</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>80000000</v>
@@ -1359,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>21335</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>80000000</v>
@@ -1379,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1390,7 +1390,7 @@
         <v>21336</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>21337</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
         <v>80000000</v>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>21338</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>21339</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1486,10 +1486,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1559,10 +1559,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_016_cwk_config.xlsx
+++ b/config_Release/activity_016_cwk_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,10 +58,6 @@
     <t>苹果大战使用500万及以上档次，种出1次金苹果</t>
   </si>
   <si>
-    <t>街机捕鱼使用10万以上炮倍击杀一条黄金龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敲敲乐财神模式中累计赢金8000万</t>
   </si>
   <si>
@@ -238,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在街机捕鱼中累计消耗1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在疯狂捕鱼中累计消耗1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +242,12 @@
   </si>
   <si>
     <t>萌宠消消乐使用48万及以上档次，出现1次幸运时刻</t>
+  </si>
+  <si>
+    <t>在街机打鱼中累计消耗1000万</t>
+  </si>
+  <si>
+    <t>街机打鱼使用10万以上炮倍击杀一条黄金龙</t>
   </si>
 </sst>
 </file>
@@ -617,16 +615,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,13 +632,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,13 +646,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +666,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I22:J23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,22 +680,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -717,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -737,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -748,7 +746,7 @@
         <v>21324</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>10000000</v>
@@ -757,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -777,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -788,7 +786,7 @@
         <v>21326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -797,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -808,7 +806,7 @@
         <v>21327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2">
         <v>10000000</v>
@@ -817,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -837,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -857,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -877,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -897,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -917,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -928,7 +926,7 @@
         <v>21333</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -937,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -948,7 +946,7 @@
         <v>21334</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
         <v>80000000</v>
@@ -957,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -968,7 +966,7 @@
         <v>21335</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
         <v>80000000</v>
@@ -977,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -988,7 +986,7 @@
         <v>21336</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -997,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,7 +1006,7 @@
         <v>21337</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>80000000</v>
@@ -1017,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,7 +1026,7 @@
         <v>21338</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1037,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1048,7 +1046,7 @@
         <v>21339</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1057,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1084,22 +1082,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1119,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1139,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1150,7 +1148,7 @@
         <v>21324</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>10000000</v>
@@ -1159,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1179,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1190,7 +1188,7 @@
         <v>1000117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -1199,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,7 +1208,7 @@
         <v>21327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>10000000</v>
@@ -1219,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1239,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1259,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1279,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1299,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1319,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1330,7 +1328,7 @@
         <v>1000118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>80000000</v>
@@ -1339,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1350,7 +1348,7 @@
         <v>21334</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
         <v>80000000</v>
@@ -1359,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1370,7 +1368,7 @@
         <v>21335</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
         <v>80000000</v>
@@ -1379,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1390,7 +1388,7 @@
         <v>21336</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1399,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1410,7 +1408,7 @@
         <v>21337</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>80000000</v>
@@ -1419,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1430,7 +1428,7 @@
         <v>21338</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1439,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1450,7 +1448,7 @@
         <v>21339</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1459,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1486,10 +1484,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1497,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1505,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1513,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1521,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1529,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1559,10 +1557,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1570,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1578,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1586,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1602,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
